--- a/data/characters/base/characters-data.xlsx
+++ b/data/characters/base/characters-data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ISML\ISML2024\data\characters\base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ISML\ISML2024-github\data\characters\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782C72F7-A22B-4DAE-BC21-BD4F0C8F1DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB7F68B-EE83-4771-8BB0-D90795110718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3059" uniqueCount="2373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3191" uniqueCount="2480">
   <si>
     <t>角色</t>
   </si>
@@ -7948,6 +7948,458 @@
   <si>
     <t>AIC，Production IMS，J.C.STAFF，GEEK TOYS</t>
   </si>
+  <si>
+    <t>鹿野千夏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青之箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kano Chinatsu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝶野雏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chōno Hina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绫濑桃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胆大党</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ayase Momo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏目玲子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏目友人帐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Natsume Reiko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多轨透</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taki Tōru</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缘结甘神家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amagami Yae</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涩谷香音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shibuya Kanon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>津岛善子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tsushima Yoshiko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>噗妮露</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>噗妮露是可爱史莱姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Puniru</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玛姬娜·索雷斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔王2099</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machina Soleige</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和泉妃爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常轨脱离Creative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Izumi Hiyori</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘神朝姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amagami Asahi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘神夕奈‌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amagami Yuna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本城寺莉香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听说你们要结婚！？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Honjōji Rika</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威廉姆斯·艾丽希亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成为名垂青史的恶役千金吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Williams Alicia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白鸟爱罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shiratori Aira</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白石万理华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妻子变成小学生。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shiraishi Marika</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天道茜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tendō Akane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女仆冥土小姐。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yuki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉尔·萨维尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重启人生的千金小姐正在攻略龙帝陛下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jill Cervel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小比类卷香莲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀剑神域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kohiruimaki Karen(Llenn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平凡职业成就世界最强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧翠丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Re:从零开始的异世界生活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beatrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲇川花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悲喜渔生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ayukawa Hana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊达地图子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acro Trip 顶尖恶路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date Chizuko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱木加奈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法光源股份有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sakuragi Kana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约兰达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地。-关于地球的运动-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jolenta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绫濑美春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵幻想记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ayase Miharu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑟莉亚·库列尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Celia Claire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锦明日海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nishiki Asumi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岚千砂都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arashi Chisato</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薇恩·玛格丽特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jibaku Shōnen Hanako-kun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安名堇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hamidashi Creative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若山诗音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小林沙苗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佐藤利奈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>甘神夜重</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>‌</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊达小百合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小林爱香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>篠原侑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户田惠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中村栞奈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悠木碧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>乱马</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>½</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日高范子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内田秀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楠木灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新井里美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁见纱绫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原田彩枫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤田茜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>䌷雪乃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岬奈子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结那</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Payton尚未</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -7956,7 +8408,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7990,6 +8442,20 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="MS Mincho"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -8331,10 +8797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I735"/>
+  <dimension ref="A1:I768"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A718" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H745" sqref="H745"/>
+    <sheetView tabSelected="1" topLeftCell="A739" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C764" sqref="C764"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -23991,6 +24457,666 @@
       <c r="H735" s="1"/>
       <c r="I735" s="1"/>
     </row>
+    <row r="736" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A736" s="1" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B736" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="C736" s="1" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D736" s="1" t="s">
+        <v>2375</v>
+      </c>
+      <c r="F736" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G736" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="737" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A737" s="1" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B737" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="C737" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D737" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="F737" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G737" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="738" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A738" s="1" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B738" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="C738" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="D738" s="1" t="s">
+        <v>2380</v>
+      </c>
+      <c r="F738" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G738" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="739" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A739" s="1" t="s">
+        <v>2381</v>
+      </c>
+      <c r="B739" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C739" s="1" t="s">
+        <v>2459</v>
+      </c>
+      <c r="D739" s="1" t="s">
+        <v>2383</v>
+      </c>
+      <c r="F739" s="1">
+        <v>2008</v>
+      </c>
+      <c r="G739" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="740" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A740" s="1" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B740" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C740" s="1" t="s">
+        <v>2460</v>
+      </c>
+      <c r="D740" s="1" t="s">
+        <v>2385</v>
+      </c>
+      <c r="F740" s="1">
+        <v>2008</v>
+      </c>
+      <c r="G740" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="741" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A741" s="1" t="s">
+        <v>2461</v>
+      </c>
+      <c r="B741" s="1" t="s">
+        <v>2386</v>
+      </c>
+      <c r="C741" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D741" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="F741" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G741" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="742" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A742" s="1" t="s">
+        <v>2388</v>
+      </c>
+      <c r="B742" s="1" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C742" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="D742" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F742" s="1">
+        <v>2013</v>
+      </c>
+      <c r="G742" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A743" s="1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B743" s="1" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C743" s="1" t="s">
+        <v>2463</v>
+      </c>
+      <c r="D743" s="1" t="s">
+        <v>2391</v>
+      </c>
+      <c r="F743" s="1">
+        <v>2013</v>
+      </c>
+      <c r="G743" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A744" s="1" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B744" s="1" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C744" s="1" t="s">
+        <v>2464</v>
+      </c>
+      <c r="D744" s="1" t="s">
+        <v>2394</v>
+      </c>
+      <c r="F744" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G744" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="745" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A745" s="1" t="s">
+        <v>2395</v>
+      </c>
+      <c r="B745" s="1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C745" s="1" t="s">
+        <v>2040</v>
+      </c>
+      <c r="D745" s="1" t="s">
+        <v>2397</v>
+      </c>
+      <c r="F745" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G745" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="746" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A746" s="1" t="s">
+        <v>2398</v>
+      </c>
+      <c r="B746" s="1" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C746" s="1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="D746" s="1" t="s">
+        <v>2400</v>
+      </c>
+      <c r="F746" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G746" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="747" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A747" s="1" t="s">
+        <v>2401</v>
+      </c>
+      <c r="B747" s="1" t="s">
+        <v>2386</v>
+      </c>
+      <c r="C747" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="D747" s="1" t="s">
+        <v>2402</v>
+      </c>
+      <c r="F747" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G747" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="748" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A748" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="B748" s="1" t="s">
+        <v>2386</v>
+      </c>
+      <c r="C748" s="1" t="s">
+        <v>2048</v>
+      </c>
+      <c r="D748" s="1" t="s">
+        <v>2404</v>
+      </c>
+      <c r="F748" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G748" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="749" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A749" s="1" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B749" s="1" t="s">
+        <v>2406</v>
+      </c>
+      <c r="C749" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D749" s="1" t="s">
+        <v>2407</v>
+      </c>
+      <c r="F749" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G749" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="750" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A750" s="1" t="s">
+        <v>2408</v>
+      </c>
+      <c r="B750" s="1" t="s">
+        <v>2409</v>
+      </c>
+      <c r="C750" s="1" t="s">
+        <v>2466</v>
+      </c>
+      <c r="D750" s="1" t="s">
+        <v>2410</v>
+      </c>
+      <c r="F750" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G750" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="751" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A751" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="B751" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="C751" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D751" s="1" t="s">
+        <v>2412</v>
+      </c>
+      <c r="F751" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G751" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="752" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A752" s="1" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B752" s="1" t="s">
+        <v>2414</v>
+      </c>
+      <c r="C752" s="1" t="s">
+        <v>2467</v>
+      </c>
+      <c r="D752" s="1" t="s">
+        <v>2415</v>
+      </c>
+      <c r="F752" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G752" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="753" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A753" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="B753" s="1" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C753" s="1" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D753" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="F753" s="1">
+        <v>1989</v>
+      </c>
+      <c r="G753" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="754" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A754" s="1" t="s">
+        <v>2418</v>
+      </c>
+      <c r="B754" s="1" t="s">
+        <v>2419</v>
+      </c>
+      <c r="C754" s="1" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D754" s="1" t="s">
+        <v>2420</v>
+      </c>
+      <c r="F754" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G754" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="755" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A755" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="B755" s="1" t="s">
+        <v>2422</v>
+      </c>
+      <c r="C755" s="1" t="s">
+        <v>2470</v>
+      </c>
+      <c r="D755" s="1" t="s">
+        <v>2423</v>
+      </c>
+      <c r="F755" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G755" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="756" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A756" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B756" s="1" t="s">
+        <v>2425</v>
+      </c>
+      <c r="C756" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="D756" s="1" t="s">
+        <v>2426</v>
+      </c>
+      <c r="F756" s="1">
+        <v>2018</v>
+      </c>
+      <c r="G756" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="757" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A757" s="1" t="s">
+        <v>2427</v>
+      </c>
+      <c r="B757" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="C757" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D757" s="1" t="s">
+        <v>2429</v>
+      </c>
+      <c r="F757" s="1">
+        <v>2019</v>
+      </c>
+      <c r="G757" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="758" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A758" s="1" t="s">
+        <v>2430</v>
+      </c>
+      <c r="B758" s="1" t="s">
+        <v>2431</v>
+      </c>
+      <c r="C758" s="1" t="s">
+        <v>2472</v>
+      </c>
+      <c r="D758" s="1" t="s">
+        <v>2432</v>
+      </c>
+      <c r="F758" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G758" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="759" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A759" s="1" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B759" s="1" t="s">
+        <v>2434</v>
+      </c>
+      <c r="C759" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D759" s="1" t="s">
+        <v>2435</v>
+      </c>
+      <c r="F759" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G759" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="760" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A760" s="1" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B760" s="1" t="s">
+        <v>2437</v>
+      </c>
+      <c r="C760" s="1" t="s">
+        <v>2040</v>
+      </c>
+      <c r="D760" s="1" t="s">
+        <v>2438</v>
+      </c>
+      <c r="F760" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G760" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="761" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A761" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B761" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="C761" s="1" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D761" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="F761" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G761" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="762" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A762" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="B762" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="C762" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="D762" s="1" t="s">
+        <v>2444</v>
+      </c>
+      <c r="F762" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G762" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="763" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A763" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B763" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C763" s="1" t="s">
+        <v>2474</v>
+      </c>
+      <c r="D763" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="F763" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G763" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="764" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A764" s="1" t="s">
+        <v>2448</v>
+      </c>
+      <c r="B764" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C764" s="1" t="s">
+        <v>2475</v>
+      </c>
+      <c r="D764" s="1" t="s">
+        <v>2449</v>
+      </c>
+      <c r="F764" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G764" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="765" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A765" s="1" t="s">
+        <v>2450</v>
+      </c>
+      <c r="B765" s="1" t="s">
+        <v>2399</v>
+      </c>
+      <c r="C765" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="D765" s="1" t="s">
+        <v>2451</v>
+      </c>
+      <c r="F765" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G765" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="766" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A766" s="1" t="s">
+        <v>2452</v>
+      </c>
+      <c r="B766" s="1" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C766" s="1" t="s">
+        <v>2477</v>
+      </c>
+      <c r="D766" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="F766" s="5">
+        <v>2013</v>
+      </c>
+      <c r="G766" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A767" s="1" t="s">
+        <v>2454</v>
+      </c>
+      <c r="B767" s="1" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C767" s="1" t="s">
+        <v>2478</v>
+      </c>
+      <c r="D767" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="F767" s="5">
+        <v>2013</v>
+      </c>
+      <c r="G767" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A768" s="1" t="s">
+        <v>2456</v>
+      </c>
+      <c r="B768" s="1" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C768" s="1" t="s">
+        <v>2479</v>
+      </c>
+      <c r="D768" s="1" t="s">
+        <v>2457</v>
+      </c>
+      <c r="F768" s="5">
+        <v>2013</v>
+      </c>
+      <c r="G768" s="5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="C1:C511" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/characters/base/characters-data.xlsx
+++ b/data/characters/base/characters-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ISML\ISML2024-github\data\characters\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB7F68B-EE83-4771-8BB0-D90795110718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14CC1FC-2799-4054-B198-93E793A7EAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3191" uniqueCount="2480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3315" uniqueCount="2563">
   <si>
     <t>角色</t>
   </si>
@@ -8398,6 +8398,338 @@
   </si>
   <si>
     <t>Payton尚未</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪股大喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inomata Taiki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高仓健</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Takakura Ken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田沼要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tanuma Kaname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸭乃桥论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸭乃桥论的禁忌推理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kamonohashi Ron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤丸立香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fate系列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fujimaru Ritsuka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早乙女乱马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saotome Ranma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中野丸尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五等分的新娘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nakano Maruo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再见龙生，你好人生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dolan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佐佐木常宏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sasaki Tsunehiro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉法尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rafal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆城寺仁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enjōji Jin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大原拓也</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ōhara Takuya</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝尔多尔·贝尔别特·贝尔休伯特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Veltol Velvet Velsvalt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上终瓜生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kamihate Uryū</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踯躅森贵明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tsutsujimori Takaaki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花散仁央</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青之壬生浪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chirinu Nio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈迪斯·迪奥斯·拉维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hadis Teos Rave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河合井小太郎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kawaii Kotarō</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克莱·安东黎希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叹气的亡灵想隐退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Krai Andrey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新岛圭介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Niijima Keisuke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南云始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nagumo Hajime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天束光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械手臂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amatsuga Hikaru</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库洛马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chrome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孤单一人的异世界攻略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haruka</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳务乐郎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香格里拉边境～粪作猎人向神作游戏发起挑战～</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hizutome Rakurō</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五十岚一贺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喂！蜻蜓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Igarashi Kazuyoshi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷格西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEASTARS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legoshi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥托·苏文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Otto Suwen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利欧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重本浩司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shigemoto Kōji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去参加联谊，却发现完全没有女生在场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tokiwa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堀江一真</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑田崇矢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武内骏辅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩中睦树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户谷菊之介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平川大辅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深町寿成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小林亲弘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小山力也</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8797,10 +9129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I768"/>
+  <dimension ref="A1:I799"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A739" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C764" sqref="C764"/>
+    <sheetView tabSelected="1" topLeftCell="A776" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E793" sqref="E793"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25110,11 +25442,631 @@
       <c r="D768" s="1" t="s">
         <v>2457</v>
       </c>
-      <c r="F768" s="5">
+      <c r="F768" s="1">
         <v>2013</v>
       </c>
-      <c r="G768" s="5">
+      <c r="G768" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="769" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A769" s="1" t="s">
+        <v>2480</v>
+      </c>
+      <c r="B769" s="1" t="s">
+        <v>2374</v>
+      </c>
+      <c r="C769" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D769" s="1" t="s">
+        <v>2481</v>
+      </c>
+      <c r="F769" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G769" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="770" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A770" s="1" t="s">
+        <v>2482</v>
+      </c>
+      <c r="B770" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="C770" s="1" t="s">
+        <v>1959</v>
+      </c>
+      <c r="D770" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="F770" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G770" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="771" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A771" s="1" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B771" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="C771" s="1" t="s">
+        <v>2554</v>
+      </c>
+      <c r="D771" s="1" t="s">
+        <v>2485</v>
+      </c>
+      <c r="F771" s="1">
+        <v>2008</v>
+      </c>
+      <c r="G771" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="772" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A772" s="1" t="s">
+        <v>2486</v>
+      </c>
+      <c r="B772" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="C772" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="D772" s="1" t="s">
+        <v>2488</v>
+      </c>
+      <c r="F772" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G772" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="773" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A773" s="1" t="s">
+        <v>2489</v>
+      </c>
+      <c r="B773" s="1" t="s">
+        <v>2490</v>
+      </c>
+      <c r="C773" s="1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D773" s="1" t="s">
+        <v>2491</v>
+      </c>
+      <c r="F773" s="1">
+        <v>2006</v>
+      </c>
+      <c r="G773" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="774" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A774" s="1" t="s">
+        <v>2492</v>
+      </c>
+      <c r="B774" s="1" t="s">
+        <v>2468</v>
+      </c>
+      <c r="C774" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D774" s="1" t="s">
+        <v>2493</v>
+      </c>
+      <c r="F774" s="1">
+        <v>1989</v>
+      </c>
+      <c r="G774" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="775" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A775" s="1" t="s">
+        <v>2494</v>
+      </c>
+      <c r="B775" s="1" t="s">
+        <v>2495</v>
+      </c>
+      <c r="C775" s="1" t="s">
+        <v>2555</v>
+      </c>
+      <c r="D775" s="1" t="s">
+        <v>2496</v>
+      </c>
+      <c r="F775" s="1">
+        <v>2019</v>
+      </c>
+      <c r="G775" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="776" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A776" s="1" t="s">
+        <v>2497</v>
+      </c>
+      <c r="B776" s="1" t="s">
+        <v>2498</v>
+      </c>
+      <c r="C776" s="1" t="s">
+        <v>2556</v>
+      </c>
+      <c r="D776" s="1" t="s">
+        <v>2499</v>
+      </c>
+      <c r="F776" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G776" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="777" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A777" s="1" t="s">
+        <v>2500</v>
+      </c>
+      <c r="B777" s="1" t="s">
+        <v>2434</v>
+      </c>
+      <c r="C777" s="1" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D777" s="1" t="s">
+        <v>2501</v>
+      </c>
+      <c r="F777" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G777" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="778" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A778" s="1" t="s">
+        <v>2502</v>
+      </c>
+      <c r="B778" s="1" t="s">
+        <v>2443</v>
+      </c>
+      <c r="C778" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D778" s="1" t="s">
+        <v>2503</v>
+      </c>
+      <c r="F778" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G778" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="779" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A779" s="1" t="s">
+        <v>2504</v>
+      </c>
+      <c r="B779" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="C779" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D779" s="1" t="s">
+        <v>2505</v>
+      </c>
+      <c r="F779" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G779" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="780" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A780" s="1" t="s">
+        <v>2506</v>
+      </c>
+      <c r="B780" s="1" t="s">
+        <v>2406</v>
+      </c>
+      <c r="C780" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="D780" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="F780" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G780" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="781" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A781" s="1" t="s">
+        <v>2508</v>
+      </c>
+      <c r="B781" s="1" t="s">
+        <v>2396</v>
+      </c>
+      <c r="C781" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D781" s="1" t="s">
+        <v>2509</v>
+      </c>
+      <c r="F781" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G781" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="782" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A782" s="1" t="s">
+        <v>2510</v>
+      </c>
+      <c r="B782" s="1" t="s">
+        <v>2386</v>
+      </c>
+      <c r="C782" s="1" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D782" s="1" t="s">
+        <v>2511</v>
+      </c>
+      <c r="F782" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G782" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="783" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A783" s="1" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B783" s="1" t="s">
+        <v>2434</v>
+      </c>
+      <c r="C783" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D783" s="1" t="s">
+        <v>2513</v>
+      </c>
+      <c r="F783" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G783" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="784" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A784" s="1" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B784" s="1" t="s">
+        <v>2515</v>
+      </c>
+      <c r="C784" s="1" t="s">
+        <v>2303</v>
+      </c>
+      <c r="D784" s="1" t="s">
+        <v>2516</v>
+      </c>
+      <c r="F784" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G784" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="785" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A785" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="B785" s="1" t="s">
+        <v>2422</v>
+      </c>
+      <c r="C785" s="1" t="s">
+        <v>2558</v>
+      </c>
+      <c r="D785" s="1" t="s">
+        <v>2518</v>
+      </c>
+      <c r="F785" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G785" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="786" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A786" s="1" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B786" s="1" t="s">
+        <v>2393</v>
+      </c>
+      <c r="C786" s="1" t="s">
+        <v>2303</v>
+      </c>
+      <c r="D786" s="1" t="s">
+        <v>2520</v>
+      </c>
+      <c r="F786" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G786" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="787" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A787" s="1" t="s">
+        <v>2521</v>
+      </c>
+      <c r="B787" s="1" t="s">
+        <v>2522</v>
+      </c>
+      <c r="C787" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D787" s="1" t="s">
+        <v>2523</v>
+      </c>
+      <c r="F787" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G787" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="788" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A788" s="1" t="s">
+        <v>2524</v>
+      </c>
+      <c r="B788" s="1" t="s">
+        <v>2414</v>
+      </c>
+      <c r="C788" s="1" t="s">
+        <v>2559</v>
+      </c>
+      <c r="D788" s="1" t="s">
+        <v>2525</v>
+      </c>
+      <c r="F788" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G788" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="789" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A789" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="B789" s="1" t="s">
+        <v>2428</v>
+      </c>
+      <c r="C789" s="1" t="s">
+        <v>2560</v>
+      </c>
+      <c r="D789" s="1" t="s">
+        <v>2527</v>
+      </c>
+      <c r="F789" s="1">
+        <v>2019</v>
+      </c>
+      <c r="G789" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="790" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A790" s="1" t="s">
+        <v>2528</v>
+      </c>
+      <c r="B790" s="1" t="s">
+        <v>2529</v>
+      </c>
+      <c r="C790" s="1" t="s">
+        <v>2312</v>
+      </c>
+      <c r="D790" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="F790" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G790" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="791" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A791" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="B791" s="1" t="s">
+        <v>2437</v>
+      </c>
+      <c r="C791" s="1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D791" s="1" t="s">
+        <v>2532</v>
+      </c>
+      <c r="F791" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G791" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="792" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A792" s="1" t="s">
+        <v>2533</v>
+      </c>
+      <c r="B792" s="1" t="s">
+        <v>2534</v>
+      </c>
+      <c r="C792" s="1" t="s">
+        <v>2303</v>
+      </c>
+      <c r="D792" s="1" t="s">
+        <v>2535</v>
+      </c>
+      <c r="F792" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G792" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="793" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A793" s="1" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B793" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="C793" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D793" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="F793" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G793" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="794" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A794" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="B794" s="1" t="s">
+        <v>2540</v>
+      </c>
+      <c r="C794" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D794" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="F794" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G794" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="795" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A795" s="1" t="s">
+        <v>2542</v>
+      </c>
+      <c r="B795" s="1" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C795" s="1" t="s">
+        <v>2561</v>
+      </c>
+      <c r="D795" s="1" t="s">
+        <v>2544</v>
+      </c>
+      <c r="F795" s="1">
+        <v>2019</v>
+      </c>
+      <c r="G795" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="796" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A796" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B796" s="1" t="s">
+        <v>2431</v>
+      </c>
+      <c r="C796" s="1" t="s">
+        <v>2302</v>
+      </c>
+      <c r="D796" s="1" t="s">
+        <v>2546</v>
+      </c>
+      <c r="F796" s="1">
+        <v>2016</v>
+      </c>
+      <c r="G796" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="797" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A797" s="1" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B797" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="C797" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D797" s="1" t="s">
+        <v>2548</v>
+      </c>
+      <c r="F797" s="1">
+        <v>2021</v>
+      </c>
+      <c r="G797" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="798" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A798" s="1" t="s">
+        <v>2549</v>
+      </c>
+      <c r="B798" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="C798" s="1" t="s">
+        <v>2562</v>
+      </c>
+      <c r="D798" s="1" t="s">
+        <v>2550</v>
+      </c>
+      <c r="F798" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G798" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="799" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A799" s="1" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B799" s="1" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C799" s="1" t="s">
+        <v>2556</v>
+      </c>
+      <c r="D799" s="1" t="s">
+        <v>2553</v>
+      </c>
+      <c r="F799" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G799" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
